--- a/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,19 +434,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>指数</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>本期</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>与上期比涨跌</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>指數名稱</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>全球主干航线综合准班率指数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>全球主干航线综合准班率指数_time</t>
         </is>
       </c>
     </row>
@@ -451,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
@@ -468,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
@@ -485,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34.08</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>41.04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_全球主幹航線綜合準班率指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30.55</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41.04</t>
+          <t>42.47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
